--- a/Testing on Live Application.xlsx
+++ b/Testing on Live Application.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Khushi Tops\Menualtesting_assignment_model-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D65DC76-6863-41E3-9FD3-89C431EBD5BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0410F8D1-8436-452E-A1A0-A0EEE8058B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{429D7694-1F30-4FE7-A330-D9C93AF78C08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{429D7694-1F30-4FE7-A330-D9C93AF78C08}"/>
   </bookViews>
   <sheets>
     <sheet name="orange login page" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Functionality ID</t>
   </si>
@@ -139,13 +140,28 @@
   </si>
   <si>
     <t>URL:https://www.youtube.com/c/OrangeHRMInc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">after clicking on login and then login successfully login and then new windowes and new page is open </t>
+  </si>
+  <si>
+    <t>URL:https://opensource-demo.orangehrmlive.com/web/index.php/admin/viewSystemUsers</t>
+  </si>
+  <si>
+    <t>click on admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after clicking to new side box and then click to admin link  then open to dashbood </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +206,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,14 +235,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -230,12 +247,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -553,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25C729D-EA2E-474F-9459-D0FF8C4FEB2D}">
   <dimension ref="A2:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,341 +590,341 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>200</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>201</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>202</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>203</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>300</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>400</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>500</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>600</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>700</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>800</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -925,4 +950,96 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11345AE7-F7F1-4084-8565-A00220501267}">
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>200</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A10:C10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4B0FB33F-27DD-4412-9823-923DFD7BB8F1}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{3F1F2C26-4EA6-46AC-9EFD-6C1D213F273B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/Testing on Live Application.xlsx
+++ b/Testing on Live Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Khushi Tops\Menualtesting_assignment_model-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0410F8D1-8436-452E-A1A0-A0EEE8058B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E0E4BC-2A2F-4D01-9AF2-537CEB39976E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{429D7694-1F30-4FE7-A330-D9C93AF78C08}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>Functionality ID</t>
   </si>
@@ -154,7 +154,31 @@
     <t>click on admin</t>
   </si>
   <si>
-    <t xml:space="preserve">after clicking to new side box and then click to admin link  then open to dashbood </t>
+    <t>after click  to adime and then open new dashbood and then system user</t>
+  </si>
+  <si>
+    <t>click on upgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after click to upgrade then open to new url and new windowes open </t>
+  </si>
+  <si>
+    <t>click on manda user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after click to manda user and then open to new side box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on about </t>
+  </si>
+  <si>
+    <t xml:space="preserve">after click to about then open to box then about informaction to companyname , version , avctive employess that all about </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">after click to support and then open to new page and then informaction to customer support </t>
   </si>
 </sst>
 </file>
@@ -247,6 +271,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -259,8 +285,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -578,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25C729D-EA2E-474F-9459-D0FF8C4FEB2D}">
   <dimension ref="A2:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -590,11 +614,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -678,11 +702,11 @@
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -744,11 +768,11 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
@@ -772,11 +796,11 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
@@ -800,11 +824,11 @@
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
@@ -828,11 +852,11 @@
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
@@ -856,11 +880,11 @@
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
@@ -884,11 +908,11 @@
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
     </row>
     <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
@@ -954,34 +978,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11345AE7-F7F1-4084-8565-A00220501267}">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -992,7 +1016,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1008,11 +1032,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1028,6 +1052,45 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>201</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>204</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Testing on Live Application.xlsx
+++ b/Testing on Live Application.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Khushi Tops\Menualtesting_assignment_model-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E0E4BC-2A2F-4D01-9AF2-537CEB39976E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38FB8F7-2815-49B8-ABBA-5DB37B185882}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{429D7694-1F30-4FE7-A330-D9C93AF78C08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{429D7694-1F30-4FE7-A330-D9C93AF78C08}"/>
   </bookViews>
   <sheets>
     <sheet name="orange login page" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="HLR" sheetId="2" r:id="rId2"/>
+    <sheet name="test_case" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="133">
   <si>
     <t>Functionality ID</t>
   </si>
@@ -179,6 +180,253 @@
   </si>
   <si>
     <t xml:space="preserve">after click to support and then open to new page and then informaction to customer support </t>
+  </si>
+  <si>
+    <t>click on change password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after click to change password and then open to  update change password page enter username, current password, password and then to confrom password and then save button click </t>
+  </si>
+  <si>
+    <t>URL:https://opensource-demo.orangehrmlive.com/web/index.php/pim/viewEmployeeList</t>
+  </si>
+  <si>
+    <t>click on pim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after click on side box and then click to pim and then open new url and dashbood employee informaction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on employe name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">after click on employee informaction and then enter employee first name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on employe id </t>
+  </si>
+  <si>
+    <t>after click on emplyee id then enter to id number and then enter to variable not enter and enter number</t>
+  </si>
+  <si>
+    <t>click on employe status</t>
+  </si>
+  <si>
+    <t>after click on employee status then side button click to and then open to employee field and then enter your field</t>
+  </si>
+  <si>
+    <t>click on Include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after click on Include then side button click to and then enter to your past company </t>
+  </si>
+  <si>
+    <t>click on Supervisor Name</t>
+  </si>
+  <si>
+    <t>after click on Supervisor Name then enter your informaction</t>
+  </si>
+  <si>
+    <t>click on Job Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after click on Job Title side button then select your opsen </t>
+  </si>
+  <si>
+    <t>click on sub unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after click on sub unit then enter to side button showe then select to your unit </t>
+  </si>
+  <si>
+    <t>click on add++</t>
+  </si>
+  <si>
+    <t>after click on add++ and then enter fileupe from and then add to employee informaction succesfull</t>
+  </si>
+  <si>
+    <t>URL:https://opensource-demo.orangehrmlive.com/web/index.php/recruitment/viewCandidates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after click on recruitment </t>
+  </si>
+  <si>
+    <t>after click on sude box and the click to recruitment then open succesfull</t>
+  </si>
+  <si>
+    <t>click on job title</t>
+  </si>
+  <si>
+    <t>after click on job title and then side box open the select your job title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on vacancy </t>
+  </si>
+  <si>
+    <t>click on hiring manager</t>
+  </si>
+  <si>
+    <t>click on status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on candidate name </t>
+  </si>
+  <si>
+    <t>click on keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on date of application </t>
+  </si>
+  <si>
+    <t>click on method of application</t>
+  </si>
+  <si>
+    <t>after click on job title and then side box open the select your vacancy</t>
+  </si>
+  <si>
+    <t>after click on job title and then side box open the select your hiring manager</t>
+  </si>
+  <si>
+    <t>after click on job title and then side box open the select your status</t>
+  </si>
+  <si>
+    <t>after click on job title and then side box open the select your candiadte name</t>
+  </si>
+  <si>
+    <t>after click on job title and then side box open the select your keyword</t>
+  </si>
+  <si>
+    <t>after click on job title and then side box open the select your date of application</t>
+  </si>
+  <si>
+    <t>after click on job title and then side box open the select your method of application</t>
+  </si>
+  <si>
+    <t>click on dashbord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after click on dashbord and then open to new dashbood </t>
+  </si>
+  <si>
+    <t>click on time of work</t>
+  </si>
+  <si>
+    <t>after click on time of work and daily work informaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on my activities </t>
+  </si>
+  <si>
+    <t>after click on my avtivies then opne my activitess to daily</t>
+  </si>
+  <si>
+    <t>click on 
+Quick Launch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after click on Quick Launch and then showes this work </t>
+  </si>
+  <si>
+    <t>click on buzz latest posts</t>
+  </si>
+  <si>
+    <t>after click on buzz lates posts and informaction showes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on employee leaves today </t>
+  </si>
+  <si>
+    <t xml:space="preserve">after click on then shoew to employee leaves showes </t>
+  </si>
+  <si>
+    <t>after click on employee by sub unit showes</t>
+  </si>
+  <si>
+    <t>click on employee by sub unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on employee distribution loaction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">after click on employee distribution loaction showes </t>
+  </si>
+  <si>
+    <t>Test case id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functionality id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case name </t>
+  </si>
+  <si>
+    <t>Test description</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test data </t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>enter url</t>
+  </si>
+  <si>
+    <t>Browser, internet, website condison is working process</t>
+  </si>
+  <si>
+    <t>1).https://opensource-demo.orangehrmlive.com/web/index.php/dashboard/index   2).press enter key</t>
+  </si>
+  <si>
+    <t>To open website</t>
+  </si>
+  <si>
+    <t>As per excpected result</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clicking leave </t>
+  </si>
+  <si>
+    <t>after clicking leave and then open link successfully.</t>
+  </si>
+  <si>
+    <t>1).https://opensource-demo.orangehrmlive.com/web/index.php/leave/viewLeaveList 2).press enter key                                                                                        3).click to leave link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click time </t>
+  </si>
+  <si>
+    <t>after clicking leave and time then open link successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1).https://opensource-demo.orangehrmlive.com/web/index.php/leave/viewLeaveList 2).press enter key                                                                                        3).click to leave link                                                                                          4).click to time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1).https://opensource-demo.orangehrmlive.com/web/index.php/leave/viewLeaveList 2).press enter key                                                                                        3).click to leave link                                                                                          4).click to time                                                                                                       5).click to my info </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click my info </t>
+  </si>
+  <si>
+    <t>after clicking my info and then open link successfully.</t>
+  </si>
+  <si>
+    <t>TEST_CASE</t>
   </si>
 </sst>
 </file>
@@ -259,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -273,6 +521,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,6 +535,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -602,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25C729D-EA2E-474F-9459-D0FF8C4FEB2D}">
   <dimension ref="A2:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -614,11 +869,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -702,11 +957,11 @@
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -768,11 +1023,11 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
@@ -796,11 +1051,11 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
@@ -824,11 +1079,11 @@
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
@@ -852,11 +1107,11 @@
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
@@ -880,11 +1135,11 @@
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
@@ -908,11 +1163,11 @@
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
@@ -978,131 +1233,657 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11345AE7-F7F1-4084-8565-A00220501267}">
-  <dimension ref="A2:C17"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="112.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>200</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>205</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>300</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>301</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>302</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>303</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>304</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>305</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>306</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>307</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>308</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>400</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>401</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>402</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>403</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>404</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>405</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>406</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>407</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>408</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>500</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>501</v>
+      </c>
+      <c r="B54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>502</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>503</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>504</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>505</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>506</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>507</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A10:C10"/>
+  <mergeCells count="5">
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4B0FB33F-27DD-4412-9823-923DFD7BB8F1}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{3F1F2C26-4EA6-46AC-9EFD-6C1D213F273B}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{4B0FB33F-27DD-4412-9823-923DFD7BB8F1}"/>
+    <hyperlink ref="A11" r:id="rId2" xr:uid="{3F1F2C26-4EA6-46AC-9EFD-6C1D213F273B}"/>
+    <hyperlink ref="A24" r:id="rId3" xr:uid="{05DF0FAD-24E3-4B13-B916-DD28C2774168}"/>
+    <hyperlink ref="A37" r:id="rId4" xr:uid="{E90D9CD0-6376-40EB-8044-7642D2E2FB35}"/>
+    <hyperlink ref="A51" r:id="rId5" xr:uid="{CA39C643-0B72-4EF1-AB34-233F1CB54A08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D0076A-15E4-4040-818F-84B616C432FB}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="59.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>